--- a/nordson.omu/src/test/java/com/nordson/testData/NorfilePressure_Hydraulic_STD_STD-DA.xlsx
+++ b/nordson.omu/src/test/java/com/nordson/testData/NorfilePressure_Hydraulic_STD_STD-DA.xlsx
@@ -18,30 +18,30 @@
     <sheet name="Input_PSI_Runup" sheetId="263" r:id="rId9"/>
     <sheet name="Input_Runup_LineSpeedft_min" sheetId="274" r:id="rId10"/>
     <sheet name="Input_Runup_LineSpeedm_min" sheetId="273" r:id="rId11"/>
-    <sheet name="Output_Runup_Lnspeed_ftmin" r:id="rId33" sheetId="533"/>
-    <sheet name="Output_Runup_Lnspeed_mmin" r:id="rId34" sheetId="534"/>
-    <sheet name="Output_KPA_Manualadjust" r:id="rId36" sheetId="550"/>
-    <sheet name="Output_KPA_Mnladjst_ntv" r:id="rId37" sheetId="551"/>
-    <sheet name="Output_BAR_Manualadjust" r:id="rId38" sheetId="552"/>
-    <sheet name="Output_BAR_Mnladjst_ntv" r:id="rId39" sheetId="553"/>
-    <sheet name="Output_PSI_Manualadjust" r:id="rId40" sheetId="554"/>
-    <sheet name="Output_PSI_Mnladjst_ntv" r:id="rId41" sheetId="555"/>
-    <sheet name="Output_KPA_electronicadjust" r:id="rId42" sheetId="556"/>
-    <sheet name="Output_KPA_electronicadjust_Ntv" r:id="rId43" sheetId="557"/>
-    <sheet name="Output_BAR_electronicadjust" r:id="rId44" sheetId="558"/>
-    <sheet name="Output_BAR_electronicadjust_Ntv" r:id="rId45" sheetId="559"/>
-    <sheet name="Output_PSI_electronicadjust" r:id="rId46" sheetId="560"/>
-    <sheet name="Output_PSI_electronicadjust_Ntv" r:id="rId47" sheetId="561"/>
-    <sheet name="Output_KPA_Runup" r:id="rId35" sheetId="562"/>
-    <sheet name="Output_BAR_Runup" r:id="rId31" sheetId="563"/>
-    <sheet name="Output_PSI_Runup" r:id="rId32" sheetId="564"/>
+    <sheet name="Output_KPA_Manualadjust" r:id="rId36" sheetId="599"/>
+    <sheet name="Output_KPA_Mnladjst_ntv" r:id="rId37" sheetId="600"/>
+    <sheet name="Output_BAR_Manualadjust" r:id="rId38" sheetId="601"/>
+    <sheet name="Output_BAR_Mnladjst_ntv" r:id="rId39" sheetId="602"/>
+    <sheet name="Output_PSI_Manualadjust" r:id="rId40" sheetId="603"/>
+    <sheet name="Output_PSI_Mnladjst_ntv" r:id="rId41" sheetId="604"/>
+    <sheet name="Output_KPA_electronicadjust" r:id="rId42" sheetId="605"/>
+    <sheet name="Output_KPA_electronicadjust_Ntv" r:id="rId43" sheetId="606"/>
+    <sheet name="Output_BAR_electronicadjust" r:id="rId44" sheetId="607"/>
+    <sheet name="Output_BAR_electronicadjust_Ntv" r:id="rId45" sheetId="608"/>
+    <sheet name="Output_PSI_electronicadjust" r:id="rId46" sheetId="609"/>
+    <sheet name="Output_PSI_electronicadjust_Ntv" r:id="rId47" sheetId="610"/>
+    <sheet name="Output_KPA_Runup" r:id="rId35" sheetId="611"/>
+    <sheet name="Output_BAR_Runup" r:id="rId31" sheetId="612"/>
+    <sheet name="Output_PSI_Runup" r:id="rId32" sheetId="613"/>
+    <sheet name="Output_Runup_Lnspeed_ftmin" r:id="rId33" sheetId="614"/>
+    <sheet name="Output_Runup_Lnspeed_mmin" r:id="rId34" sheetId="615"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="107">
   <si>
     <t>Min_Pressure_KPA_UI</t>
   </si>
@@ -1635,77 +1635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet533.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet534.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet550.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet599.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1727,592 +1657,6 @@
       </c>
       <c r="B2" t="s">
         <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet551.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet552.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet553.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet554.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet555.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet556.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet557.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet558.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet559.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet560.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet561.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet562.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet563.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet564.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2371,6 +1715,662 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet600.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet601.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet602.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet603.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet604.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet605.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet606.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet607.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet608.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet609.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet610.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet611.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet612.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet613.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet614.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet615.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>

--- a/nordson.omu/src/test/java/com/nordson/testData/NorfilePressure_Hydraulic_STD_STD-DA.xlsx
+++ b/nordson.omu/src/test/java/com/nordson/testData/NorfilePressure_Hydraulic_STD_STD-DA.xlsx
@@ -18,12 +18,6 @@
     <sheet name="Input_PSI_Runup" sheetId="263" r:id="rId9"/>
     <sheet name="Input_Runup_LineSpeedft_min" sheetId="274" r:id="rId10"/>
     <sheet name="Input_Runup_LineSpeedm_min" sheetId="273" r:id="rId11"/>
-    <sheet name="Output_KPA_Manualadjust" r:id="rId36" sheetId="599"/>
-    <sheet name="Output_KPA_Mnladjst_ntv" r:id="rId37" sheetId="600"/>
-    <sheet name="Output_BAR_Manualadjust" r:id="rId38" sheetId="601"/>
-    <sheet name="Output_BAR_Mnladjst_ntv" r:id="rId39" sheetId="602"/>
-    <sheet name="Output_PSI_Manualadjust" r:id="rId40" sheetId="603"/>
-    <sheet name="Output_PSI_Mnladjst_ntv" r:id="rId41" sheetId="604"/>
     <sheet name="Output_KPA_electronicadjust" r:id="rId42" sheetId="605"/>
     <sheet name="Output_KPA_electronicadjust_Ntv" r:id="rId43" sheetId="606"/>
     <sheet name="Output_BAR_electronicadjust" r:id="rId44" sheetId="607"/>
@@ -35,13 +29,19 @@
     <sheet name="Output_PSI_Runup" r:id="rId32" sheetId="613"/>
     <sheet name="Output_Runup_Lnspeed_ftmin" r:id="rId33" sheetId="614"/>
     <sheet name="Output_Runup_Lnspeed_mmin" r:id="rId34" sheetId="615"/>
+    <sheet name="Output_KPA_Manualadjust" r:id="rId36" sheetId="616"/>
+    <sheet name="Output_KPA_Mnladjst_ntv" r:id="rId37" sheetId="617"/>
+    <sheet name="Output_BAR_Manualadjust" r:id="rId38" sheetId="618"/>
+    <sheet name="Output_BAR_Mnladjst_ntv" r:id="rId39" sheetId="619"/>
+    <sheet name="Output_PSI_Manualadjust" r:id="rId40" sheetId="620"/>
+    <sheet name="Output_PSI_Mnladjst_ntv" r:id="rId41" sheetId="621"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2821" uniqueCount="107">
   <si>
     <t>Min_Pressure_KPA_UI</t>
   </si>
@@ -1635,35 +1635,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet599.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -1715,7 +1686,547 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet600.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet605.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet606.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet607.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet608.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet609.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet610.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet611.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet612.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet613.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet614.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet615.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet616.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet617.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1744,7 +2255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet601.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet618.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1773,7 +2284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet602.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet619.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1802,7 +2313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet603.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet620.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1820,10 +2331,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1831,7 +2342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet604.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet621.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1849,521 +2360,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet605.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet606.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet607.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet608.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet609.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet610.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet611.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet612.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet613.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet614.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet615.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
